--- a/04_Safety_Helmet_Vest_Detection/Safety_helmet_vest_usbcam/exe/yolov3/yolov3_summary.xlsx
+++ b/04_Safety_Helmet_Vest_Detection/Safety_helmet_vest_usbcam/exe/yolov3/yolov3_summary.xlsx
@@ -5802,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="O89" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P89" t="n">
         <v>13</v>
@@ -5811,7 +5811,7 @@
         <v>13</v>
       </c>
       <c r="S89" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" outlineLevel="1">
@@ -6342,7 +6342,7 @@
         <v>26</v>
       </c>
       <c r="O98" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P98" t="n">
         <v>26</v>
@@ -6351,7 +6351,7 @@
         <v>26</v>
       </c>
       <c r="S98" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" outlineLevel="1">
@@ -6882,7 +6882,7 @@
         <v>52</v>
       </c>
       <c r="O107" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P107" t="n">
         <v>52</v>
@@ -6891,7 +6891,7 @@
         <v>52</v>
       </c>
       <c r="S107" t="n">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" outlineLevel="1">
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M108" t="n">
         <v>13</v>
@@ -6939,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="O108" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P108" t="n">
         <v>13</v>
@@ -6948,7 +6948,7 @@
         <v>13</v>
       </c>
       <c r="S108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" outlineLevel="1">
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M109" t="n">
         <v>13</v>
@@ -6996,7 +6996,7 @@
         <v>13</v>
       </c>
       <c r="O109" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P109" t="n">
         <v>13</v>
@@ -7005,7 +7005,7 @@
         <v>13</v>
       </c>
       <c r="S109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" outlineLevel="1">
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M110" t="n">
         <v>26</v>
@@ -7053,7 +7053,7 @@
         <v>26</v>
       </c>
       <c r="O110" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P110" t="n">
         <v>26</v>
@@ -7062,7 +7062,7 @@
         <v>26</v>
       </c>
       <c r="S110" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" outlineLevel="1">
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M111" t="n">
         <v>26</v>
@@ -7110,7 +7110,7 @@
         <v>26</v>
       </c>
       <c r="O111" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P111" t="n">
         <v>26</v>
@@ -7119,7 +7119,7 @@
         <v>26</v>
       </c>
       <c r="S111" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" outlineLevel="1">
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M112" t="n">
         <v>52</v>
@@ -7167,7 +7167,7 @@
         <v>52</v>
       </c>
       <c r="O112" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P112" t="n">
         <v>52</v>
@@ -7176,7 +7176,7 @@
         <v>52</v>
       </c>
       <c r="S112" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" outlineLevel="1">
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M113" t="n">
         <v>52</v>
@@ -7224,7 +7224,7 @@
         <v>52</v>
       </c>
       <c r="O113" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P113" t="n">
         <v>52</v>
@@ -7233,7 +7233,7 @@
         <v>52</v>
       </c>
       <c r="S113" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" outlineLevel="1">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>189206</v>
+        <v>189131</v>
       </c>
     </row>
     <row r="115">
